--- a/data/trans_camb/P23_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 6,86</t>
+          <t>-5,51; 17,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 0,58</t>
+          <t>-8,95; 8,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,28</t>
+          <t>-12,68; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,41</t>
+          <t>-15,81; 9,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 5,42</t>
+          <t>-15,66; 9,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,55</t>
+          <t>-11,61; 18,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 8,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 5,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 8,96</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-60,19%</t>
+          <t>-26,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-74,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-21,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-22,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 141,93</t>
+          <t>-81,33; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,24; 32,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 158,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 166,75</t>
+          <t>-79,82; 214,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 93,79</t>
+          <t>-80,41; 177,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,9; 56,08</t>
+          <t>-64,8; 365,76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-66,74; 173,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-76,45; 139,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-67,69; 184,26</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 10,42</t>
+          <t>-2,2; 18,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,03</t>
+          <t>-2,19; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -0,12</t>
+          <t>-0,37; 23,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 1,47</t>
+          <t>-7,22; 2,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,02</t>
+          <t>-5,17; 5,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,71</t>
+          <t>-5,92; 4,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 7,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 5,24</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 11,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>102,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>194,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,11%</t>
+          <t>-34,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>-8,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60,6%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 317,77</t>
+          <t>-59,23; 994,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 175,21</t>
+          <t>-47,04; 462,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 1,84</t>
+          <t>-23,76; 1262,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 22,83</t>
+          <t>-74,94; 54,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 63,03</t>
+          <t>-55,58; 133,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 48,77</t>
+          <t>-59,79; 97,02</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,76; 189,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-44,34; 153,26</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-23,15; 309,48</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,08</t>
+          <t>0,05; 18,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,25</t>
+          <t>-0,63; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,91</t>
+          <t>2,86; 14,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,34</t>
+          <t>-4,83; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,2</t>
+          <t>-3,13; 5,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,96</t>
+          <t>-0,77; 8,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 8,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 8,8</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>117,53%</t>
+          <t>375,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>230,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>559,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>109,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>214,83%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 1172,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,03; 443,83</t>
+          <t>-62,58; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,66; 203,68</t>
+          <t>3,69; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 320,29</t>
+          <t>-90,53; 205,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 278,32</t>
+          <t>-64,18; 343,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 232,27</t>
+          <t>-27,58; 550,51</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-46,91; 607,7</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,22; 339,54</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27,5; 584,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 161,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 84,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 23,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 48,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 49,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 39,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,54</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 12,26</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,07</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 15,23</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 1,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 3,86</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 6,4</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,75</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 3,25</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 8,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>137,19%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>64,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>180,69%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-28,78%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>78,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-20,99; 565,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 259,85</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 714,74</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-60,73; 34,68</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-40,12; 82,26</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 134,25</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; 124,95</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,43; 93,34</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 217,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
